--- a/tests/testthat/testdata_Rate.xlsx
+++ b/tests/testthat/testdata_Rate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Rate_100" sheetId="2" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
-    <t>UL998CL</t>
-  </si>
-  <si>
-    <t>LL998CL</t>
-  </si>
-  <si>
-    <t>UL95CL</t>
-  </si>
-  <si>
-    <t>LL95CL</t>
-  </si>
-  <si>
     <t>Rate</t>
   </si>
   <si>
@@ -49,6 +37,18 @@
   </si>
   <si>
     <t>Numerator</t>
+  </si>
+  <si>
+    <t>LL95CI</t>
+  </si>
+  <si>
+    <t>UL95CI</t>
+  </si>
+  <si>
+    <t>LL998CI</t>
+  </si>
+  <si>
+    <t>UL998CI</t>
   </si>
 </sst>
 </file>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,28 +407,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,28 +706,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/tests/testthat/testdata_Rate.xlsx
+++ b/tests/testthat/testdata_Rate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Rate_100" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Rate</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>UL998CI</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>Area5</t>
+  </si>
+  <si>
+    <t>Area2</t>
+  </si>
+  <si>
+    <t>Area3</t>
+  </si>
+  <si>
+    <t>Area4</t>
+  </si>
+  <si>
+    <t>Area6</t>
+  </si>
+  <si>
+    <t>Area7</t>
+  </si>
+  <si>
+    <t>Area8</t>
   </si>
 </sst>
 </file>
@@ -388,294 +415,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">IF(A2&lt;0,"#NUM!",A2/B2*$C2)</f>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" si="0">IF(B2&lt;0,"#NUM!",B2/C2*$D2)</f>
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>IF($A2=0,0,IF($A2&lt;10,CHIINV(0.5+95/200,2*$A2)/2,$A2*(1-1/(9*$A2)-NORMSINV(0.5+95/200)/3/SQRT($A2))^3))/$B2*$C2</f>
+      <c r="F2">
+        <f>IF($B2=0,0,IF($B2&lt;10,CHIINV(0.5+95/200,2*$B2)/2,$B2*(1-1/(9*$B2)-NORMSINV(0.5+95/200)/3/SQRT($B2))^3))/$C2*$D2</f>
         <v>2.5317807984289897E-2</v>
       </c>
-      <c r="F2">
-        <f>IF($A2&lt;10,CHIINV(0.5-95/200,2*$A2+2)/2,($A2+1)*(1-1/(9*($A2+1))+NORMSINV(0.5+95/200)/3/SQRT($A2+1))^3)/$B2*$C2</f>
+      <c r="G2">
+        <f>IF($B2&lt;10,CHIINV(0.5-95/200,2*$B2+2)/2,($B2+1)*(1-1/(9*($B2+1))+NORMSINV(0.5+95/200)/3/SQRT($B2+1))^3)/$C2*$D2</f>
         <v>5.571643390938898</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G9" si="1">IF($A2=0,0,IF($A2&lt;389,CHIINV(0.5+99.8/200,2*$A2)/2,$A2*(1-1/(9*$A2)-NORMSINV(0.5+99.8/200)/3/SQRT($A2))^3))/$B2*$C2</f>
+      <c r="H2">
+        <f>IF($B2=0,0,IF($B2&lt;10,CHIINV(0.5+99.8/200,2*$B2)/2,$B2*(1-1/(9*$B2)-NORMSINV(0.5+99.8/200)/3/SQRT($B2))^3))/$C2*$D2</f>
         <v>1.0005003335835344E-3</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H9" si="2">IF($A2&lt;389,CHIINV(0.5-99.8/200,2*$A2+2)/2,($A2+1)*(1-1/(9*($A2+1))+NORMSINV(0.5+99.8/200)/3/SQRT($A2+1))^3)/$B2*$C2</f>
+      <c r="I2">
+        <f>IF($B2&lt;10,CHIINV(0.5-99.8/200,2*$B2+2)/2,($B2+1)*(1-1/(9*($B2+1))+NORMSINV(0.5+99.8/200)/3/SQRT($B2+1))^3)/$C2*$D2</f>
         <v>9.2334134764515845</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="3">IF($A3=0,0,IF($A3&lt;10,CHIINV(0.5+95/200,2*$A3)/2,$A3*(1-1/(9*$A3)-NORMSINV(0.5+95/200)/3/SQRT($A3))^3))/$B3*$C3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">IF($B3=0,0,IF($B3&lt;10,CHIINV(0.5+95/200,2*$B3)/2,$B3*(1-1/(9*$B3)-NORMSINV(0.5+95/200)/3/SQRT($B3))^3))/$C3*$D3</f>
         <v>1.62348639011842</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="4">IF($A3&lt;10,CHIINV(0.5-95/200,2*$A3+2)/2,($A3+1)*(1-1/(9*($A3+1))+NORMSINV(0.5+95/200)/3/SQRT($A3+1))^3)/$B3*$C3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">IF($B3&lt;10,CHIINV(0.5-95/200,2*$B3+2)/2,($B3+1)*(1-1/(9*($B3+1))+NORMSINV(0.5+95/200)/3/SQRT($B3+1))^3)/$C3*$D3</f>
         <v>11.668332079322669</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="3">IF($B3=0,0,IF($B3&lt;10,CHIINV(0.5+99.8/200,2*$B3)/2,$B3*(1-1/(9*$B3)-NORMSINV(0.5+99.8/200)/3/SQRT($B3))^3))/$C3*$D3</f>
         <v>0.739371731917839</v>
       </c>
-      <c r="H3">
-        <f t="shared" si="2"/>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="4">IF($B3&lt;10,CHIINV(0.5-99.8/200,2*$B3+2)/2,($B3+1)*(1-1/(9*($B3+1))+NORMSINV(0.5+99.8/200)/3/SQRT($B3+1))^3)/$C3*$D3</f>
         <v>16.454745203680105</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="3"/>
+      <c r="F4">
+        <f t="shared" si="1"/>
         <v>12.211428834875937</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="4"/>
+      <c r="G4">
+        <f t="shared" si="2"/>
         <v>30.889880369197066</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>8.9582132676260677</v>
-      </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>38.041881353850016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <f t="shared" si="3"/>
+        <v>8.922802365144193</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>38.085035625041911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
         <v>65</v>
       </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>50.163187710459454</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="4"/>
+      <c r="G5">
+        <f t="shared" si="2"/>
         <v>82.849138545939837</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>42.901837749707326</v>
-      </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>93.976279648436432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <f t="shared" si="3"/>
+        <v>42.880261471480203</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>94.000290844318016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
         <v>9856</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>12345</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>79.837991089509913</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
+      <c r="F6">
+        <f t="shared" si="1"/>
         <v>78.269490589767571</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
+      <c r="G6">
+        <f t="shared" si="2"/>
         <v>81.430016542721404</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+      <c r="H6">
+        <f t="shared" si="3"/>
         <v>77.375905432710525</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
+      <c r="I6">
+        <f t="shared" si="4"/>
         <v>82.354472770954303</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
         <v>7776456</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>7564336677</v>
       </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>0.10280420256339154</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>0.10273196005302074</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
+      <c r="G7">
+        <f t="shared" si="2"/>
         <v>0.10287648334092832</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="H7">
+        <f t="shared" si="3"/>
         <v>0.102690317308454</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="I7">
+        <f t="shared" si="4"/>
         <v>0.10291817639509068</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
         <v>222</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>3215</v>
       </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>6.9051321928460334</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
+      <c r="F8">
+        <f t="shared" si="1"/>
         <v>6.0265748776526751</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="4"/>
+      <c r="G8">
+        <f t="shared" si="2"/>
         <v>7.8757293708718503</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>5.5611153471079939</v>
-      </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>8.4606463295672114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5607376952598537</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>8.4610466817334107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
         <v>999</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>3456</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>28.90625</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>27.141304936090521</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
+      <c r="G9">
+        <f t="shared" si="2"/>
         <v>30.755833237378415</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
+      <c r="H9">
+        <f t="shared" si="3"/>
         <v>26.162147596445767</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
+      <c r="I9">
+        <f t="shared" si="4"/>
         <v>31.845604819822654</v>
       </c>
     </row>
@@ -687,293 +741,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
         <v>100000</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">IF(A2&lt;0,"#NUM!",A2/B2*$C2)</f>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" si="0">IF(B2&lt;0,"#NUM!",B2/C2*$D2)</f>
         <v>1000</v>
       </c>
-      <c r="E2">
-        <f>IF($A2=0,0,IF($A2&lt;10,CHIINV(0.5+95/200,2*$A2)/2,$A2*(1-1/(9*$A2)-NORMSINV(0.5+95/200)/3/SQRT($A2))^3))/$B2*$C2</f>
+      <c r="F2">
+        <f>IF($B2=0,0,IF($B2&lt;10,CHIINV(0.5+95/200,2*$B2)/2,$B2*(1-1/(9*$B2)-NORMSINV(0.5+95/200)/3/SQRT($B2))^3))/$C2*$D2</f>
         <v>25.317807984289896</v>
       </c>
-      <c r="F2">
-        <f>IF($A2&lt;10,CHIINV(0.5-95/200,2*$A2+2)/2,($A2+1)*(1-1/(9*($A2+1))+NORMSINV(0.5+95/200)/3/SQRT($A2+1))^3)/$B2*$C2</f>
+      <c r="G2">
+        <f>IF($B2&lt;10,CHIINV(0.5-95/200,2*$B2+2)/2,($B2+1)*(1-1/(9*($B2+1))+NORMSINV(0.5+95/200)/3/SQRT($B2+1))^3)/$C2*$D2</f>
         <v>5571.6433909388979</v>
       </c>
-      <c r="G2">
-        <f>IF($A2=0,0,IF($A2&lt;10,CHIINV(0.5+99.8/200,2*$A2)/2,$A2*(1-1/(9*$A2)-NORMSINV(0.5+99.8/200)/3/SQRT($A2))^3))/$B2*$C2</f>
+      <c r="H2">
+        <f>IF($B2=0,0,IF($B2&lt;10,CHIINV(0.5+99.8/200,2*$B2)/2,$B2*(1-1/(9*$B2)-NORMSINV(0.5+99.8/200)/3/SQRT($B2))^3))/$C2*$D2</f>
         <v>1.0005003335835343</v>
       </c>
-      <c r="H2">
-        <f>IF($A2&lt;10,CHIINV(0.5-99.8/200,2*$A2+2)/2,($A2+1)*(1-1/(9*($A2+1))+NORMSINV(0.5+99.8/200)/3/SQRT($A2+1))^3)/$B2*$C2</f>
+      <c r="I2">
+        <f>IF($B2&lt;10,CHIINV(0.5-99.8/200,2*$B2+2)/2,($B2+1)*(1-1/(9*($B2+1))+NORMSINV(0.5+99.8/200)/3/SQRT($B2+1))^3)/$C2*$D2</f>
         <v>9233.4134764515857</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
         <v>100000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">IF($A3=0,0,IF($A3&lt;10,CHIINV(0.5+95/200,2*$A3)/2,$A3*(1-1/(9*$A3)-NORMSINV(0.5+95/200)/3/SQRT($A3))^3))/$B3*$C3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">IF($B3=0,0,IF($B3&lt;10,CHIINV(0.5+95/200,2*$B3)/2,$B3*(1-1/(9*$B3)-NORMSINV(0.5+95/200)/3/SQRT($B3))^3))/$C3*$D3</f>
         <v>1623.4863901184199</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">IF($A3&lt;10,CHIINV(0.5-95/200,2*$A3+2)/2,($A3+1)*(1-1/(9*($A3+1))+NORMSINV(0.5+95/200)/3/SQRT($A3+1))^3)/$B3*$C3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">IF($B3&lt;10,CHIINV(0.5-95/200,2*$B3+2)/2,($B3+1)*(1-1/(9*($B3+1))+NORMSINV(0.5+95/200)/3/SQRT($B3+1))^3)/$C3*$D3</f>
         <v>11668.332079322669</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">IF($A3=0,0,IF($A3&lt;10,CHIINV(0.5+99.8/200,2*$A3)/2,$A3*(1-1/(9*$A3)-NORMSINV(0.5+99.8/200)/3/SQRT($A3))^3))/$B3*$C3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="3">IF($B3=0,0,IF($B3&lt;10,CHIINV(0.5+99.8/200,2*$B3)/2,$B3*(1-1/(9*$B3)-NORMSINV(0.5+99.8/200)/3/SQRT($B3))^3))/$C3*$D3</f>
         <v>739.37173191783893</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="4">IF($A3&lt;10,CHIINV(0.5-99.8/200,2*$A3+2)/2,($A3+1)*(1-1/(9*($A3+1))+NORMSINV(0.5+99.8/200)/3/SQRT($A3+1))^3)/$B3*$C3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="4">IF($B3&lt;10,CHIINV(0.5-99.8/200,2*$B3+2)/2,($B3+1)*(1-1/(9*($B3+1))+NORMSINV(0.5+99.8/200)/3/SQRT($B3+1))^3)/$C3*$D3</f>
         <v>16454.745203680104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
         <v>100000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>12211.428834875936</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="2"/>
         <v>30889.880369197064</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="3"/>
         <v>8922.8023651441927</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="4"/>
         <v>38085.035625041914</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
         <v>65</v>
       </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
         <v>100000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>65000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>50163.187710459453</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="2"/>
         <v>82849.138545939844</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="3"/>
         <v>42880.261471480204</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="4"/>
         <v>94000.290844318006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
         <v>9856</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>12345</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>100000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>79837.991089509916</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>78269.490589767578</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="2"/>
         <v>81430.016542721409</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="3"/>
         <v>77375.905432710526</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="4"/>
         <v>82354.472770954308</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
         <v>7776456</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>7564336677</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>100000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>102.80420256339154</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>102.73196005302074</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>102.87648334092832</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>102.690317308454</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="4"/>
         <v>102.91817639509068</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
         <v>222</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>3215</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>100000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>6905.1321928460338</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>6026.5748776526743</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>7875.7293708718507</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="3"/>
         <v>5560.7376952598534</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="4"/>
         <v>8461.0466817334109</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
         <v>999</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>3456</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="1">
         <v>100000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>28906.25</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>27141.304936090521</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>30755.833237378414</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="3"/>
         <v>26162.147596445768</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="4"/>
         <v>31845.604819822653</v>
       </c>

--- a/tests/testthat/testdata_Rate.xlsx
+++ b/tests/testthat/testdata_Rate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Rate</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Area8</t>
+  </si>
+  <si>
+    <t>upper95cl</t>
+  </si>
+  <si>
+    <t>lower998cl</t>
+  </si>
+  <si>
+    <t>lower95cl</t>
+  </si>
+  <si>
+    <t>upper998cl</t>
   </si>
 </sst>
 </file>
@@ -744,7 +756,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/tests/testthat/testdata_Rate.xlsx
+++ b/tests/testthat/testdata_Rate.xlsx
@@ -80,9 +80,6 @@
     <t>statistic</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>rate per 100000</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Byars</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -509,10 +509,10 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4">
         <v>100</v>
@@ -544,10 +544,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4">
         <v>100</v>
@@ -579,10 +579,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4">
         <v>100</v>
@@ -614,10 +614,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="4">
         <v>100</v>
@@ -649,10 +649,10 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4">
         <v>100</v>
@@ -684,10 +684,10 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
@@ -719,10 +719,10 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="4">
         <v>100</v>
@@ -754,10 +754,10 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="4">
         <v>100</v>
@@ -789,10 +789,10 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="4">
         <v>100000</v>
@@ -824,10 +824,10 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4">
         <v>100000</v>
@@ -859,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="4">
         <v>100000</v>
@@ -894,10 +894,10 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="4">
         <v>100000</v>
@@ -929,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="4">
         <v>100000</v>
@@ -964,10 +964,10 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="4">
         <v>100000</v>
@@ -999,10 +999,10 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="4">
         <v>100000</v>
@@ -1034,10 +1034,10 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4">
         <v>100000</v>
@@ -1069,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="4">
         <v>100</v>
@@ -1104,10 +1104,10 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="4">
         <v>100</v>
@@ -1139,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="4">
         <v>100</v>
@@ -1174,10 +1174,10 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" s="4">
         <v>100</v>
@@ -1209,10 +1209,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" s="4">
         <v>100</v>
@@ -1244,10 +1244,10 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
@@ -1279,10 +1279,10 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="4">
         <v>100</v>
@@ -1314,10 +1314,10 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
@@ -1349,10 +1349,10 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" s="4">
         <v>100000</v>
@@ -1384,10 +1384,10 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="4">
         <v>100000</v>
@@ -1419,10 +1419,10 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28" s="4">
         <v>100000</v>
@@ -1454,10 +1454,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" s="4">
         <v>100000</v>
@@ -1489,10 +1489,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" s="4">
         <v>100000</v>
@@ -1524,10 +1524,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="4">
         <v>100000</v>
@@ -1559,10 +1559,10 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="4">
         <v>100000</v>
@@ -1594,10 +1594,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" s="4">
         <v>100000</v>

--- a/tests/testthat/testdata_Rate.xlsx
+++ b/tests/testthat/testdata_Rate.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEstatmethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1458C-8178-4E91-A6C0-7F8DC31CCA4E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Rate" sheetId="2" r:id="rId1"/>
+    <sheet name="testdata_Rate_g" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="27">
   <si>
     <t>Denominator</t>
   </si>
@@ -96,12 +104,21 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Area9</t>
+  </si>
+  <si>
+    <t>Area10</t>
+  </si>
+  <si>
+    <t>Area11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,17 +1621,429 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="4">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39EBE6-76F1-4DEA-ABB6-5CC513AA3B0B}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A2,testdata_Rate!B$2:B$33)</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A2,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>272.4663434065813</v>
+      </c>
+      <c r="F2">
+        <v>2560.3971688509241</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A3,testdata_Rate!B$2:B$33)</f>
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A3,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3">
+        <v>3052.8572087189841</v>
+      </c>
+      <c r="F3">
+        <v>7722.4700922992661</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A4,testdata_Rate!B$2:B$33)</f>
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A4,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>15858.21780470269</v>
+      </c>
+      <c r="F4">
+        <v>24892.038099730591</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A5,testdata_Rate!B$2:B$33)</f>
+        <v>260</v>
+      </c>
+      <c r="C5">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A5,testdata_Rate!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>65000</v>
+      </c>
+      <c r="E5">
+        <v>57338.247579389856</v>
+      </c>
+      <c r="F5">
+        <v>73400.310929637635</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A6,testdata_Rate!B$2:B$33)</f>
+        <v>39424</v>
+      </c>
+      <c r="C6">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A6,testdata_Rate!C$2:C$33)</f>
+        <v>49380</v>
+      </c>
+      <c r="D6">
+        <v>79837.991089509916</v>
+      </c>
+      <c r="E6">
+        <v>79051.81799297237</v>
+      </c>
+      <c r="F6">
+        <v>80630.035462060783</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A7,testdata_Rate!B$2:B$33)</f>
+        <v>31105824</v>
+      </c>
+      <c r="C7">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A7,testdata_Rate!C$2:C$33)</f>
+        <v>30257346708</v>
+      </c>
+      <c r="D7">
+        <v>102.80420256339154</v>
+      </c>
+      <c r="E7">
+        <v>102.76807817760378</v>
+      </c>
+      <c r="F7">
+        <v>102.84033651539011</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A8,testdata_Rate!B$2:B$33)</f>
+        <v>888</v>
+      </c>
+      <c r="C8">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A8,testdata_Rate!C$2:C$33)</f>
+        <v>12860</v>
+      </c>
+      <c r="D8">
+        <v>6905.1321928460338</v>
+      </c>
+      <c r="E8">
+        <v>6458.3723204675634</v>
+      </c>
+      <c r="F8">
+        <v>7374.6521642203033</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A9,testdata_Rate!B$2:B$33)</f>
+        <v>3996</v>
+      </c>
+      <c r="C9">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A9,testdata_Rate!C$2:C$33)</f>
+        <v>13824</v>
+      </c>
+      <c r="D9">
+        <v>28906.25</v>
+      </c>
+      <c r="E9">
+        <v>28016.873508380959</v>
+      </c>
+      <c r="F9">
+        <v>29816.675067891891</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/testthat/testdata_Rate.xlsx
+++ b/tests/testthat/testdata_Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1458C-8178-4E91-A6C0-7F8DC31CCA4E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F2EC38-0182-4CFB-8AD4-0336BB2B1BC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Rate" sheetId="2" r:id="rId1"/>
@@ -451,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39EBE6-76F1-4DEA-ABB6-5CC513AA3B0B}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,93 +1755,59 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>25</v>
       </c>
       <c r="B3">
-        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A3,testdata_Rate!B$2:B$33)</f>
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A3,testdata_Rate!C$2:C$33)</f>
-        <v>400</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>3052.8572087189841</v>
-      </c>
-      <c r="F3">
-        <v>7722.4700922992661</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
         <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A4,testdata_Rate!B$2:B$33)</f>
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A4,testdata_Rate!C$2:C$33)</f>
-        <v>400</v>
-      </c>
-      <c r="D4">
-        <v>20000</v>
-      </c>
-      <c r="E4">
-        <v>15858.21780470269</v>
-      </c>
-      <c r="F4">
-        <v>24892.038099730591</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A5,testdata_Rate!B$2:B$33)</f>
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A5,testdata_Rate!C$2:C$33)</f>
         <v>400</v>
       </c>
       <c r="D5">
-        <v>65000</v>
+        <v>5000</v>
       </c>
       <c r="E5">
-        <v>57338.247579389856</v>
+        <v>3052.8572087189841</v>
       </c>
       <c r="F5">
-        <v>73400.310929637635</v>
+        <v>7722.4700922992661</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>11</v>
@@ -1858,24 +1824,24 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A6,testdata_Rate!B$2:B$33)</f>
-        <v>39424</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A6,testdata_Rate!C$2:C$33)</f>
-        <v>49380</v>
+        <v>400</v>
       </c>
       <c r="D6">
-        <v>79837.991089509916</v>
+        <v>20000</v>
       </c>
       <c r="E6">
-        <v>79051.81799297237</v>
+        <v>15858.21780470269</v>
       </c>
       <c r="F6">
-        <v>80630.035462060783</v>
+        <v>24892.038099730591</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>11</v>
@@ -1892,24 +1858,24 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A7,testdata_Rate!B$2:B$33)</f>
-        <v>31105824</v>
+        <v>260</v>
       </c>
       <c r="C7">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A7,testdata_Rate!C$2:C$33)</f>
-        <v>30257346708</v>
+        <v>400</v>
       </c>
       <c r="D7">
-        <v>102.80420256339154</v>
+        <v>65000</v>
       </c>
       <c r="E7">
-        <v>102.76807817760378</v>
+        <v>57338.247579389856</v>
       </c>
       <c r="F7">
-        <v>102.84033651539011</v>
+        <v>73400.310929637635</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>11</v>
@@ -1926,24 +1892,24 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A8,testdata_Rate!B$2:B$33)</f>
-        <v>888</v>
+        <v>39424</v>
       </c>
       <c r="C8">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A8,testdata_Rate!C$2:C$33)</f>
-        <v>12860</v>
+        <v>49380</v>
       </c>
       <c r="D8">
-        <v>6905.1321928460338</v>
+        <v>79837.991089509916</v>
       </c>
       <c r="E8">
-        <v>6458.3723204675634</v>
+        <v>79051.81799297237</v>
       </c>
       <c r="F8">
-        <v>7374.6521642203033</v>
+        <v>80630.035462060783</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>11</v>
@@ -1960,78 +1926,112 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A9,testdata_Rate!B$2:B$33)</f>
-        <v>3996</v>
+        <v>31105824</v>
       </c>
       <c r="C9">
         <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A9,testdata_Rate!C$2:C$33)</f>
+        <v>30257346708</v>
+      </c>
+      <c r="D9">
+        <v>102.80420256339154</v>
+      </c>
+      <c r="E9">
+        <v>102.76807817760378</v>
+      </c>
+      <c r="F9">
+        <v>102.84033651539011</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A10,testdata_Rate!B$2:B$33)</f>
+        <v>888</v>
+      </c>
+      <c r="C10">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A10,testdata_Rate!C$2:C$33)</f>
+        <v>12860</v>
+      </c>
+      <c r="D10">
+        <v>6905.1321928460338</v>
+      </c>
+      <c r="E10">
+        <v>6458.3723204675634</v>
+      </c>
+      <c r="F10">
+        <v>7374.6521642203033</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A11,testdata_Rate!B$2:B$33)</f>
+        <v>3996</v>
+      </c>
+      <c r="C11">
+        <f>SUMIF(testdata_Rate!$A$2:$A$33,testdata_Rate_g!$A11,testdata_Rate!C$2:C$33)</f>
         <v>13824</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>28906.25</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>28016.873508380959</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>29816.675067891891</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11">
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4">
         <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
